--- a/medicine/Enfance/L'Affaire_Jennifer_Jones/L'Affaire_Jennifer_Jones.xlsx
+++ b/medicine/Enfance/L'Affaire_Jennifer_Jones/L'Affaire_Jennifer_Jones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Affaire_Jennifer_Jones</t>
+          <t>L'Affaire_Jennifer_Jones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Affaire Jennifer Jones (titre original : Looking for JJ) est un roman policier de littérature d'enfance et de jeunesse (destiné à un public d'adolescents) de l'écrivain britannique Anne Cassidy, publié en 2004.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Affaire_Jennifer_Jones</t>
+          <t>L'Affaire_Jennifer_Jones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au moment du meurtre, tous les journaux en ont parlé pendant des mois. Des dizaines d'articles ont analysé l'affaire sous tous les angles et les événements de ce jour terrible à Berwick Waters : le contexte, les familles des enfants, les rapports scolaires, les réactions des habitants. La question demeure entière : comment une petite fille de dix ans pouvait-elle tuer un autre enfant ?
 Alice Tully, 17 ans, va s'inscrire en première année d'Histoire à la rentrée. Elle a un petit ami nommé Frankie, travaille dans un bistrot et, en apparences, à l'air d'une jeune fille comme les autres. Mais ce n'est pas le cas. Quand elle avait 10 ans, elle a tué son amie Michelle. Elle a même du changer son identité. Elle n'avait pas l'intention de tuer Michelle - elle l'a frappée à la tête avec une batte, mais elle ne se sent pas responsable de la mort. C'était un simple accident. Aujourd'hui, elle voudrait en parler à Frankie et à ses amis, mais elle hésite.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Affaire_Jennifer_Jones</t>
+          <t>L'Affaire_Jennifer_Jones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix du meilleur livre pour adolescent en Angleterre en 2004[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix du meilleur livre pour adolescent en Angleterre en 2004
 Sélectionné pour le Carnegie Medal et le Whitbread Children's Book Awards, les deux prix les plus prestigieux en Angleterre.
 </t>
         </is>
